--- a/Data/Averages.xlsx
+++ b/Data/Averages.xlsx
@@ -602,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -639,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -661,8 +661,12 @@
       <c r="G2" s="3">
         <v>4.71</v>
       </c>
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>695.5233333333332</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -684,8 +688,12 @@
       <c r="G3" s="3">
         <v>95165.29</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">AVERAGE(A3:G3)</f>
+        <v>85410.404999999984</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -707,8 +715,12 @@
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H4">
+        <f>AVERAGE(SUBSTITUTE(B4,"ms", ""),SUBSTITUTE(C4,"ms", ""),SUBSTITUTE(D4,"ms", ""),SUBSTITUTE(E4,"ms", ""),SUBSTITUTE(F4,"ms", ""),SUBSTITUTE(G4,"ms", ""))</f>
+        <v>1798.2849999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -730,8 +742,12 @@
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="1">AVERAGE(SUBSTITUTE(B5,"ms", ""),SUBSTITUTE(C5,"ms", ""),SUBSTITUTE(D5,"ms", ""),SUBSTITUTE(E5,"ms", ""),SUBSTITUTE(F5,"ms", ""),SUBSTITUTE(G5,"ms", ""))</f>
+        <v>253.3116666666667</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -752,6 +768,70 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>44.213333333333338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>SUM(SUBSTITUTE(B4,"ms",""),SUBSTITUTE(B5,"ms",""),SUBSTITUTE(B6,"ms",""))</f>
+        <v>1816.0000000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:G7" si="2">SUM(SUBSTITUTE(C4,"ms",""),SUBSTITUTE(C5,"ms",""),SUBSTITUTE(C6,"ms",""))</f>
+        <v>1888.85</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>2104.29</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2203.7199999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2282</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H8" si="3">AVERAGE(B7:G7)</f>
+        <v>2095.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B3+B2</f>
+        <v>95143.28</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:G8" si="4">C3+C2</f>
+        <v>68017.850000000006</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>68017.859999999986</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>95143.29</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>95143.29</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>95170</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>86105.92833333333</v>
       </c>
     </row>
   </sheetData>
